--- a/ExpectedResult/Scenario1.xlsx
+++ b/ExpectedResult/Scenario1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\amar\OdessaAutomationDemo\LW4.0_MAG_Automation\ExpectedResult\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\amar\ARI5.0Demo\FinalFramework\ExpectedResult\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="96">
   <si>
     <t>CustomerID</t>
   </si>
@@ -304,6 +304,9 @@
   </si>
   <si>
     <t>as</t>
+  </si>
+  <si>
+    <t>last</t>
   </si>
 </sst>
 </file>
@@ -658,10 +661,15 @@
   <dimension ref="A1:BZ2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="76" max="76" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="26.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -914,6 +922,9 @@
       </c>
       <c r="E2" t="s">
         <v>80</v>
+      </c>
+      <c r="G2" t="s">
+        <v>95</v>
       </c>
       <c r="H2" t="s">
         <v>81</v>
